--- a/2023A/result1.xlsx
+++ b/2023A/result1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\MODEL\2023A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E10AE-D197-4CA4-A0CA-D0CCF5A009FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0243F8DB-26C0-408D-8BC3-278530D8146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3770" yWindow="1150" windowWidth="20850" windowHeight="11450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="730" windowWidth="20850" windowHeight="11450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>平均光学效率</t>
   </si>
@@ -52,7 +52,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均输出热功率</t>
+    <t>平均输出热功率(kW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,363 +403,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="A14:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.60852529551160517</v>
+      </c>
+      <c r="B2">
+        <v>0.71942234574846631</v>
+      </c>
+      <c r="C2">
+        <v>0.96091633237822338</v>
+      </c>
+      <c r="D2">
+        <v>0.99765663139694249</v>
+      </c>
+      <c r="E2">
+        <v>0.5296912899135392</v>
+      </c>
+      <c r="G2">
+        <f>E2*36*1744</f>
+        <v>33256.137945931645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.63681258373407679</v>
+      </c>
+      <c r="B3">
+        <v>0.73969280758039413</v>
+      </c>
+      <c r="C3">
+        <v>0.97442406876790832</v>
+      </c>
+      <c r="D3">
+        <v>0.99787522372232473</v>
+      </c>
+      <c r="E3">
+        <v>0.59958867202685073</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="0">E3*36*1744</f>
+        <v>37644.575184533795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.66029460475250401</v>
+      </c>
+      <c r="B4">
+        <v>0.76114001539293619</v>
+      </c>
+      <c r="C4">
+        <v>0.98043266475644653</v>
+      </c>
+      <c r="D4">
+        <v>0.99803849239968212</v>
+      </c>
+      <c r="E4">
+        <v>0.65721035638619374</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>41262.295015350785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.67889186491144515</v>
+      </c>
+      <c r="B5">
+        <v>0.77887346423607573</v>
+      </c>
+      <c r="C5">
+        <v>0.98405787965616087</v>
+      </c>
+      <c r="D5">
+        <v>0.9980421327548642</v>
+      </c>
+      <c r="E5">
+        <v>0.6984449244549541</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>43851.166136979838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.68951810849185013</v>
+      </c>
+      <c r="B6">
+        <v>0.7891047766381255</v>
+      </c>
+      <c r="C6">
+        <v>0.9857501432664757</v>
+      </c>
+      <c r="D6">
+        <v>0.99840374215976624</v>
+      </c>
+      <c r="E6">
+        <v>0.72046320243659001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>45233.561701778868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.69284938443485056</v>
+      </c>
+      <c r="B7">
+        <v>0.79236041448306749</v>
+      </c>
+      <c r="C7">
+        <v>0.98621432664756425</v>
+      </c>
+      <c r="D7">
+        <v>0.99852500113482245</v>
+      </c>
+      <c r="E7">
+        <v>0.72720868483890511</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>45657.070068925816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.68997592476923975</v>
+      </c>
+      <c r="B8">
+        <v>0.7894201763477483</v>
+      </c>
+      <c r="C8">
+        <v>0.9859409742120343</v>
+      </c>
+      <c r="D8">
+        <v>0.99844133418319791</v>
+      </c>
+      <c r="E8">
+        <v>0.72125875299953845</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>45283.509548323025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.67917099014381321</v>
+      </c>
+      <c r="B9">
+        <v>0.77910780615742325</v>
+      </c>
+      <c r="C9">
+        <v>0.98414097421203428</v>
+      </c>
+      <c r="D9">
+        <v>0.99807855783814325</v>
+      </c>
+      <c r="E9">
+        <v>0.69899690783213586</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>43885.821861332821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.66001844688060585</v>
+      </c>
+      <c r="B10">
+        <v>0.76079197948848343</v>
+      </c>
+      <c r="C10">
+        <v>0.98051633237822333</v>
+      </c>
+      <c r="D10">
+        <v>0.99798789565133261</v>
+      </c>
+      <c r="E10">
+        <v>0.65644233608861269</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>41214.075628987463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.63548418191048206</v>
+      </c>
+      <c r="B11">
+        <v>0.73857619513050099</v>
+      </c>
+      <c r="C11">
+        <v>0.97400573065902551</v>
+      </c>
+      <c r="D11">
+        <v>0.99798489380261091</v>
+      </c>
+      <c r="E11">
+        <v>0.59622930976818722</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>37433.660984485869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.60755867881111036</v>
+      </c>
+      <c r="B12">
+        <v>0.71867638300956949</v>
+      </c>
+      <c r="C12">
+        <v>0.96041891117478462</v>
+      </c>
+      <c r="D12">
+        <v>0.99767225206160748</v>
+      </c>
+      <c r="E12">
+        <v>0.52693685235547294</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>33083.20333828601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.5955681060493706</v>
+      </c>
+      <c r="B13">
+        <v>0.71106876052461776</v>
+      </c>
+      <c r="C13">
+        <v>0.95342521489971332</v>
+      </c>
+      <c r="D13">
+        <v>0.99615204388917</v>
+      </c>
+      <c r="E13">
+        <v>0.49591962258218908</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>31135.817584200155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>SUM(A2:A13)</f>
+        <v>7.8346681704009526</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>9.0782351247374091</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>11.710243553008594</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>11.974858200994465</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>7.6283909116831694</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>478940.89499911614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.62042110509325288</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.71343517636219222</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.98386131805157651</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.99585400570578808</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.52332063282202579</v>
-      </c>
-      <c r="F2">
-        <f>E2*36*1744</f>
-        <v>32856.162611098065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.63204486988915842</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.71738837390287569</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.99467851002865371</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.99554548688762057</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.54444364868315986</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">E3*36*1744</f>
-        <v>34182.350038923512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.63693499378492735</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.72167825068958069</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.9967002865329514</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.99502075181000271</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.55792799835440188</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>35028.951448682768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.64017443707206512</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.72535339095971429</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.99691461318051577</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.99483954664119723</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5668334736668843</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>35588.072810701662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.64245422694532295</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.72757682410961699</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.99691919770773629</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.99540560458452754</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.57199839836674149</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>35912.347443057493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.64317571536510409</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.72831677174506138</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.99691346704871064</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.99549557593123217</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.57360873786189825</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>36013.45099792142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.64250491109243679</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.72764754895277228</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.99690659025787975</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.99535738045208544</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.57213595931448846</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>35920.984069600847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.64031513097142478</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.72540316718115017</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.99691690544412614</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.99501596179560681</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.56704270931853951</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>35601.209461855186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.63688530560486745</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.72160752343475543</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.99667851002865349</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.9950577978929831</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.55775434593848838</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>35018.048855402056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.63156245653978171</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.7171683183311115</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.99430372492836716</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.9955737633304732</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.54346934159204308</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>34121.179142514833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.62007806575551938</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.71329127878663923</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.98359541547277973</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.99564742846974252</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.52256795255681332</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>32808.906333326966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.61513376389314234</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.71182978713858502</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.9783587392550146</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.99569873487685867</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.5135839815676404</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>32244.856698742733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>SUM(A2:A13)</f>
-        <v>7.6016849820070034</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" ref="B14:E14" si="1">SUM(B2:B13)</f>
-        <v>8.6506964115940548</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A14/12</f>
+        <v>0.65288901420007939</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:E17" si="1">B14/12</f>
+        <v>0.75651959372811739</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>11.912747277936965</v>
-      </c>
-      <c r="D14" s="1">
+        <v>0.97585362941738285</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>11.944512038378118</v>
-      </c>
-      <c r="E14" s="1">
+        <v>0.99790485008287211</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>6.6146871800431262</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>415296.51991182764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A14/12</f>
-        <v>0.63347374850058358</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:E16" si="2">B14/12</f>
-        <v>0.7208913676328379</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.99272893982808041</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.99537600319817654</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.55122393167026051</v>
-      </c>
-      <c r="F16" s="1">
-        <f>F14/12</f>
-        <v>34608.043325985636</v>
+        <v>0.63569924264026412</v>
+      </c>
+      <c r="G17">
+        <f>G14/12</f>
+        <v>39911.741249926345</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
